--- a/project_input_template/project_list_all_scenarios.xlsx
+++ b/project_input_template/project_list_all_scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/landbosse-issue-103-validation-fails-2020-2-3-9-17-18/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504739A1-DB4C-DE4E-B68C-34E73D038EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F60EF5-3087-5342-A1F5-4C2E4FD69DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14360" xr2:uid="{CA848B2B-50AD-1141-9E6B-5049DCE507C8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Project ID</t>
   </si>
@@ -200,9 +200,6 @@
     <t>ge15_dist_10</t>
   </si>
   <si>
-    <t>Vestas_V47_public</t>
-  </si>
-  <si>
     <t>foundation_validation_ge15</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>foundation_validation_iea36_120</t>
+  </si>
+  <si>
+    <t>ge15_public_dist</t>
   </si>
 </sst>
 </file>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C2AE7-DAF9-A64F-82B2-BFC05FEB6151}">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,22 +797,22 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.66</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1.5</v>
@@ -836,10 +836,10 @@
         <v>0.2</v>
       </c>
       <c r="N2" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.36</v>
       </c>
       <c r="O2" s="3">
-        <v>243542.25</v>
+        <v>589000</v>
       </c>
       <c r="P2" s="1">
         <v>191521</v>
@@ -851,10 +851,10 @@
         <v>60</v>
       </c>
       <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.1</v>
       </c>
       <c r="U2" s="1">
         <v>10</v>
@@ -862,70 +862,71 @@
       <c r="V2" s="1">
         <v>15</v>
       </c>
-      <c r="W2" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
         <v>15</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AB2" s="4">
+      <c r="Y2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
         <v>1</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>20</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>8</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="1">
-        <v>1735</v>
-      </c>
-      <c r="AG2" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AG2" s="1">
         <v>12.2</v>
       </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
+      <c r="AH2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>1.4</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL2" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="AM2" s="2">
+        <f>231750+1287500</f>
+        <v>1519250</v>
+      </c>
+      <c r="AM2" s="1">
         <v>0.03</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2">
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
         <v>0.05</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="1">
         <v>0.05</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="1">
         <v>0</v>
       </c>
       <c r="AS2" s="1">
@@ -937,10 +938,10 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -961,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1012,7 +1013,7 @@
         <v>40</v>
       </c>
       <c r="Z3" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1030,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="AF3" s="1">
-        <v>4500</v>
+        <v>22500</v>
       </c>
       <c r="AG3" s="1">
         <v>12.2</v>
@@ -1048,7 +1049,7 @@
         <v>40</v>
       </c>
       <c r="AL3" s="5">
-        <f>231750+1287500</f>
+        <f t="shared" ref="AL3:AL4" si="0">231750+1287500</f>
         <v>1519250</v>
       </c>
       <c r="AM3" s="1">
@@ -1069,19 +1070,19 @@
       <c r="AR3" s="1">
         <v>0</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <v>1</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1102,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1153,7 +1154,7 @@
         <v>40</v>
       </c>
       <c r="Z4" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -1171,7 +1172,7 @@
         <v>42</v>
       </c>
       <c r="AF4" s="1">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="AG4" s="1">
         <v>12.2</v>
@@ -1189,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="AL4" s="5">
-        <f t="shared" ref="AL4:AL5" si="0">231750+1287500</f>
+        <f t="shared" si="0"/>
         <v>1519250</v>
       </c>
       <c r="AM4" s="1">
@@ -1218,14 +1219,14 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
+      <c r="A5" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>1.5</v>
@@ -1243,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="1">
         <v>1.5</v>
@@ -1276,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="U5" s="1">
         <v>10</v>
@@ -1284,71 +1285,70 @@
       <c r="V5" s="1">
         <v>15</v>
       </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="W5" s="2">
+        <v>5</v>
+      </c>
+      <c r="X5" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>8</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AF5" s="1">
-        <v>45000</v>
-      </c>
-      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
         <v>12.2</v>
       </c>
-      <c r="AH5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AH5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="2">
         <v>2</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <v>1.4</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="0"/>
-        <v>1519250</v>
-      </c>
-      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
         <v>0.03</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
         <v>0.05</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="2">
         <v>0.05</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
@@ -1363,19 +1363,19 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="1">
         <v>80</v>
       </c>
       <c r="F6" s="1">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1384,25 +1384,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K6" s="1">
         <v>1.5</v>
       </c>
       <c r="L6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O6" s="3">
-        <v>589000</v>
+        <v>1009000</v>
       </c>
       <c r="P6" s="1">
         <v>191521</v>
@@ -1503,19 +1503,19 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="E7" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1">
         <v>0.7</v>
@@ -1533,22 +1533,22 @@
         <v>1.5</v>
       </c>
       <c r="L7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="O7" s="3">
-        <v>1009000</v>
+        <v>1261000</v>
       </c>
       <c r="P7" s="1">
         <v>191521</v>
       </c>
       <c r="Q7" s="1">
-        <v>59.5</v>
+        <v>52.5</v>
       </c>
       <c r="R7" s="1">
         <v>60</v>
@@ -1643,7 +1643,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -1652,7 +1652,7 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="1">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1">
         <v>130</v>
@@ -1667,7 +1667,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="1">
         <v>1.5</v>
@@ -1682,7 +1682,7 @@
         <v>3.1</v>
       </c>
       <c r="O8" s="3">
-        <v>1261000</v>
+        <v>1780000</v>
       </c>
       <c r="P8" s="1">
         <v>191521</v>
@@ -1779,153 +1779,13 @@
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>120</v>
-      </c>
-      <c r="F9" s="1">
-        <v>130</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>6</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1780000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>191521</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="R9" s="1">
-        <v>60</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>50</v>
-      </c>
-      <c r="U9" s="1">
-        <v>10</v>
-      </c>
-      <c r="V9" s="1">
-        <v>15</v>
-      </c>
-      <c r="W9" s="2">
-        <v>5</v>
-      </c>
-      <c r="X9" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>0</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="Z12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
